--- a/python/result_data/dax30/__REPORT__2012-01-01_2019-12-31.xlsx
+++ b/python/result_data/dax30/__REPORT__2012-01-01_2019-12-31.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\GIT_REPO\uc3m\my\uc3m-stockVolatilityPredictionGtrends\python\result_data\dax30\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CFEB2-DF74-4DB8-B69A-58A2E49033CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20115" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="__REPORT__" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 1.1.1</t>
+  </si>
   <si>
     <t>stock</t>
   </si>
@@ -28,95 +31,113 @@
     <t>value</t>
   </si>
   <si>
+    <t>best_sensitivity</t>
+  </si>
+  <si>
+    <t>best_specificity</t>
+  </si>
+  <si>
+    <t>best_odds_ratio</t>
+  </si>
+  <si>
+    <t>best_pvalue</t>
+  </si>
+  <si>
     <t>richest_data_stock</t>
   </si>
   <si>
+    <t>best_precision_binary</t>
+  </si>
+  <si>
+    <t>best_precision_weighted</t>
+  </si>
+  <si>
+    <t>best_f1</t>
+  </si>
+  <si>
+    <t>best_recall_binary</t>
+  </si>
+  <si>
+    <t>best_recall_weighted</t>
+  </si>
+  <si>
+    <t>most_balanced_binary_trend</t>
+  </si>
+  <si>
+    <t>most_balanced_binary_finance</t>
+  </si>
+  <si>
+    <t>poorest_data_stock</t>
+  </si>
+  <si>
+    <t>worst_precision_binary</t>
+  </si>
+  <si>
+    <t>worst_precision_weighted</t>
+  </si>
+  <si>
+    <t>worst_f1</t>
+  </si>
+  <si>
+    <t>worst_recall_binary</t>
+  </si>
+  <si>
+    <t>worst_recall_weighted</t>
+  </si>
+  <si>
+    <t>median_precision_binary</t>
+  </si>
+  <si>
+    <t>median_precision_weighted</t>
+  </si>
+  <si>
+    <t>median_recall_binary</t>
+  </si>
+  <si>
+    <t>median_recall_weighted</t>
+  </si>
+  <si>
+    <t>less_balanced_binary_trend</t>
+  </si>
+  <si>
+    <t>less_balanced_binary_finance</t>
+  </si>
+  <si>
     <t>ADS</t>
   </si>
   <si>
-    <t>best_precision_binary</t>
-  </si>
-  <si>
     <t>DTE</t>
   </si>
   <si>
-    <t>best_precision_weighted</t>
-  </si>
-  <si>
     <t>RWE</t>
   </si>
   <si>
-    <t>best_f1</t>
-  </si>
-  <si>
-    <t>best_recall_binary</t>
-  </si>
-  <si>
-    <t>best_recall_weighted</t>
-  </si>
-  <si>
     <t>BAY</t>
   </si>
   <si>
-    <t>most_balanced_binary_trend</t>
-  </si>
-  <si>
     <t>MRK</t>
   </si>
   <si>
+    <t>IFX</t>
+  </si>
+  <si>
+    <t>['DBK', 'DBK', 'FME', 'LHA']</t>
+  </si>
+  <si>
     <t>{'trend_ceros': 1209, 'trend_unos': 790, 'precision_binary': 0.22151898734177214, 'precision_weighted': 0.6357466721131607, 'recall_binary': 0.3771551724137931, 'recall_weighted': 0.5477738869434717}</t>
   </si>
   <si>
-    <t>most_balanced_binary_finance</t>
-  </si>
-  <si>
     <t>{'finance_ceros': 1458, 'finance_unos': 541, 'precision_binary': 0.24631268436578171, 'precision_weighted': 0.5895287042921665, 'recall_binary': 0.30868761552680224, 'recall_weighted': 0.5572786393196598}</t>
   </si>
   <si>
-    <t>poorest_data_stock</t>
-  </si>
-  <si>
-    <t>worst_precision_binary</t>
-  </si>
-  <si>
-    <t>worst_precision_weighted</t>
-  </si>
-  <si>
-    <t>worst_f1</t>
-  </si>
-  <si>
-    <t>worst_recall_binary</t>
-  </si>
-  <si>
-    <t>worst_recall_weighted</t>
-  </si>
-  <si>
-    <t>median_precision_binary</t>
-  </si>
-  <si>
-    <t>median_precision_weighted</t>
-  </si>
-  <si>
-    <t>median_recall_binary</t>
-  </si>
-  <si>
-    <t>median_recall_weighted</t>
-  </si>
-  <si>
-    <t>less_balanced_binary_trend</t>
-  </si>
-  <si>
     <t>{}</t>
-  </si>
-  <si>
-    <t>less_balanced_binary_finance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +148,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,14 +200,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -472,221 +487,715 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
         <v>3998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>0.2463126843657817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>0.9982928633559055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.24631268436578169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>0.7729681978798587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0.9982928633559055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>0.5895287042921665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>0.5477738869434717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>0.1091148484348342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>0.8119479286755812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>0.3043682187280444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>0.8119479286755812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>0.1145404663923182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>0.1145404663923182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.77296819787985871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>2.246204933586338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>0.1145404663923182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>2.246204933586338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>0.58952870429216653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0.54777388694347173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>0.1091148484348342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>0.81194792867558119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>0.30436821872804443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>0.81194792867558119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>0.1145404663923182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>2.246204933586338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>